--- a/ForIdan/For idan/FlightApp_Recovery_And_Function/Flight_RecoveryAnd_Function/Default.xlsx
+++ b/ForIdan/For idan/FlightApp_Recovery_And_Function/Flight_RecoveryAnd_Function/Default.xlsx
@@ -479,7 +479,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,7 +498,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +517,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
